--- a/figs/n_candidates.xlsx
+++ b/figs/n_candidates.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>146227</v>
+        <v>146321</v>
       </c>
     </row>
     <row r="22">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>164368</v>
+        <v>164191</v>
       </c>
     </row>
     <row r="23">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>177870</v>
+        <v>177668</v>
       </c>
     </row>
     <row r="24">
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>14126</v>
+        <v>14032</v>
       </c>
     </row>
     <row r="30">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>15823</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="31">
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>15453</v>
+        <v>15655</v>
       </c>
     </row>
     <row r="32">
@@ -717,6 +717,246 @@
       </c>
       <c r="B36">
         <v>16826</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Senate Election 1996</t>
+        </is>
+      </c>
+      <c r="B37">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Senate Election 1998</t>
+        </is>
+      </c>
+      <c r="B38">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Senate By-election 1999</t>
+        </is>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Senate Election 2000</t>
+        </is>
+      </c>
+      <c r="B40">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Senate Election 2002</t>
+        </is>
+      </c>
+      <c r="B41">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Senate By-election 2003</t>
+        </is>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Senate By-election 2004</t>
+        </is>
+      </c>
+      <c r="B43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Senate Election 2004</t>
+        </is>
+      </c>
+      <c r="B44">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Senate Election 2006</t>
+        </is>
+      </c>
+      <c r="B45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Senate By-election 2007</t>
+        </is>
+      </c>
+      <c r="B46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Senate Election 2008</t>
+        </is>
+      </c>
+      <c r="B47">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Senate Election 2010</t>
+        </is>
+      </c>
+      <c r="B48">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Senate By-election 2011</t>
+        </is>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Senate Election 2012</t>
+        </is>
+      </c>
+      <c r="B50">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Senate By-election 2014</t>
+        </is>
+      </c>
+      <c r="B51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Senate Election 2014</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Senate By-election 2016</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Senate By-election 2017</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Senate By-election 2018</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Senate Election 2018</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Senate By-election 2019</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Senate By-election 2020</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Senate Election 2020</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Senate Election 2022</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/figs/n_candidates.xlsx
+++ b/figs/n_candidates.xlsx
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>5059</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>5906</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +436,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>7540</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>5262</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="10">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>11321</v>
+        <v>11319</v>
       </c>
     </row>
     <row r="14">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>11889</v>
+        <v>11888</v>
       </c>
     </row>
     <row r="15">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>740</v>
+        <v>731</v>
       </c>
     </row>
     <row r="18">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>208997</v>
+        <v>208977</v>
       </c>
     </row>
     <row r="26">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>211637</v>
+        <v>211633</v>
       </c>
     </row>
     <row r="27">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>195882</v>
+        <v>195879</v>
       </c>
     </row>
     <row r="28">
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>178607</v>
+        <v>178602</v>
       </c>
     </row>
     <row r="29">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>17965</v>
+        <v>17963</v>
       </c>
     </row>
     <row r="34">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>22240</v>
+        <v>22235</v>
       </c>
     </row>
     <row r="35">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>20623</v>
+        <v>20622</v>
       </c>
     </row>
     <row r="36">

--- a/figs/n_candidates.xlsx
+++ b/figs/n_candidates.xlsx
@@ -376,7 +376,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>4537</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>3727</v>
+        <v>3726</v>
       </c>
     </row>
     <row r="4">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>164191</v>
+        <v>164190</v>
       </c>
     </row>
     <row r="23">

--- a/figs/n_candidates.xlsx
+++ b/figs/n_candidates.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>election_year</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -742,221 +742,131 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senate By-election 1999</t>
+          <t>Senate Election 2000</t>
         </is>
       </c>
       <c r="B39">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Senate Election 2000</t>
+          <t>Senate Election 2002</t>
         </is>
       </c>
       <c r="B40">
-        <v>165</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Senate Election 2002</t>
+          <t>Senate Election 2004</t>
         </is>
       </c>
       <c r="B41">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Senate By-election 2003</t>
+          <t>Senate Election 2006</t>
         </is>
       </c>
       <c r="B42">
-        <v>16</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Senate By-election 2004</t>
+          <t>Senate Election 2008</t>
         </is>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Senate Election 2004</t>
+          <t>Senate Election 2010</t>
         </is>
       </c>
       <c r="B44">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Senate Election 2006</t>
+          <t>Senate Election 2012</t>
         </is>
       </c>
       <c r="B45">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Senate By-election 2007</t>
+          <t>Senate Election 2014</t>
         </is>
       </c>
       <c r="B46">
-        <v>17</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Senate Election 2008</t>
+          <t>Senate By-election 2016</t>
         </is>
       </c>
       <c r="B47">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Senate Election 2010</t>
+          <t>Senate Election 2018</t>
         </is>
       </c>
       <c r="B48">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Senate By-election 2011</t>
+          <t>Senate Election 2020</t>
         </is>
       </c>
       <c r="B49">
-        <v>10</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Senate Election 2012</t>
+          <t>Senate Election 2022</t>
         </is>
       </c>
       <c r="B50">
-        <v>236</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Senate By-election 2014</t>
+          <t>Senate By-election NA</t>
         </is>
       </c>
       <c r="B51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Senate Election 2014</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Senate By-election 2016</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Senate By-election 2017</t>
-        </is>
-      </c>
-      <c r="B54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Senate By-election 2018</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Senate Election 2018</t>
-        </is>
-      </c>
-      <c r="B56">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Senate By-election 2019</t>
-        </is>
-      </c>
-      <c r="B57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Senate By-election 2020</t>
-        </is>
-      </c>
-      <c r="B58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Senate Election 2020</t>
-        </is>
-      </c>
-      <c r="B59">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Senate Election 2022</t>
-        </is>
-      </c>
-      <c r="B60">
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/figs/n_candidates.xlsx
+++ b/figs/n_candidates.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>n_candidates</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_female_candidates</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>n_elected</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>n_female_elected</t>
         </is>
       </c>
     </row>
@@ -378,6 +393,15 @@
       <c r="B2">
         <v>4536</v>
       </c>
+      <c r="C2">
+        <v>917</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -388,6 +412,15 @@
       <c r="B3">
         <v>3726</v>
       </c>
+      <c r="C3">
+        <v>771</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -398,6 +431,15 @@
       <c r="B4">
         <v>6162</v>
       </c>
+      <c r="C4">
+        <v>1634</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+      <c r="E4">
+        <v>34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -408,6 +450,15 @@
       <c r="B5">
         <v>5011</v>
       </c>
+      <c r="C5">
+        <v>1395</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -418,6 +469,15 @@
       <c r="B6">
         <v>5054</v>
       </c>
+      <c r="C6">
+        <v>1371</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>44</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -428,6 +488,15 @@
       <c r="B7">
         <v>5905</v>
       </c>
+      <c r="C7">
+        <v>1589</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -438,6 +507,15 @@
       <c r="B8">
         <v>7539</v>
       </c>
+      <c r="C8">
+        <v>2155</v>
+      </c>
+      <c r="D8">
+        <v>200</v>
+      </c>
+      <c r="E8">
+        <v>44</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -448,6 +526,15 @@
       <c r="B9">
         <v>5258</v>
       </c>
+      <c r="C9">
+        <v>1664</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>50</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -458,6 +545,15 @@
       <c r="B10">
         <v>7725</v>
       </c>
+      <c r="C10">
+        <v>1684</v>
+      </c>
+      <c r="D10">
+        <v>675</v>
+      </c>
+      <c r="E10">
+        <v>97</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -468,6 +564,15 @@
       <c r="B11">
         <v>8309</v>
       </c>
+      <c r="C11">
+        <v>2164</v>
+      </c>
+      <c r="D11">
+        <v>675</v>
+      </c>
+      <c r="E11">
+        <v>103</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -478,6 +583,15 @@
       <c r="B12">
         <v>8264</v>
       </c>
+      <c r="C12">
+        <v>2418</v>
+      </c>
+      <c r="D12">
+        <v>675</v>
+      </c>
+      <c r="E12">
+        <v>119</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -488,6 +602,15 @@
       <c r="B13">
         <v>11319</v>
       </c>
+      <c r="C13">
+        <v>3123</v>
+      </c>
+      <c r="D13">
+        <v>675</v>
+      </c>
+      <c r="E13">
+        <v>134</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -498,6 +621,15 @@
       <c r="B14">
         <v>11888</v>
       </c>
+      <c r="C14">
+        <v>3581</v>
+      </c>
+      <c r="D14">
+        <v>675</v>
+      </c>
+      <c r="E14">
+        <v>137</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -508,6 +640,15 @@
       <c r="B15">
         <v>9726</v>
       </c>
+      <c r="C15">
+        <v>2678</v>
+      </c>
+      <c r="D15">
+        <v>675</v>
+      </c>
+      <c r="E15">
+        <v>149</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -518,6 +659,15 @@
       <c r="B16">
         <v>809</v>
       </c>
+      <c r="C16">
+        <v>205</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -528,6 +678,15 @@
       <c r="B17">
         <v>731</v>
       </c>
+      <c r="C17">
+        <v>210</v>
+      </c>
+      <c r="D17">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -538,6 +697,15 @@
       <c r="B18">
         <v>857</v>
       </c>
+      <c r="C18">
+        <v>230</v>
+      </c>
+      <c r="D18">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -548,6 +716,15 @@
       <c r="B19">
         <v>844</v>
       </c>
+      <c r="C19">
+        <v>201</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -558,6 +735,15 @@
       <c r="B20">
         <v>675</v>
       </c>
+      <c r="C20">
+        <v>246</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -568,6 +754,15 @@
       <c r="B21">
         <v>146321</v>
       </c>
+      <c r="C21">
+        <v>31681</v>
+      </c>
+      <c r="D21">
+        <v>59754</v>
+      </c>
+      <c r="E21">
+        <v>10614</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -578,6 +773,15 @@
       <c r="B22">
         <v>164190</v>
       </c>
+      <c r="C22">
+        <v>40928</v>
+      </c>
+      <c r="D22">
+        <v>59986</v>
+      </c>
+      <c r="E22">
+        <v>12263</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -588,6 +792,15 @@
       <c r="B23">
         <v>177668</v>
       </c>
+      <c r="C23">
+        <v>48223</v>
+      </c>
+      <c r="D23">
+        <v>60001</v>
+      </c>
+      <c r="E23">
+        <v>13567</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -598,6 +811,15 @@
       <c r="B24">
         <v>187038</v>
       </c>
+      <c r="C24">
+        <v>55099</v>
+      </c>
+      <c r="D24">
+        <v>60056</v>
+      </c>
+      <c r="E24">
+        <v>15000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -608,6 +830,15 @@
       <c r="B25">
         <v>208977</v>
       </c>
+      <c r="C25">
+        <v>65223</v>
+      </c>
+      <c r="D25">
+        <v>59793</v>
+      </c>
+      <c r="E25">
+        <v>15725</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -618,6 +849,15 @@
       <c r="B26">
         <v>211633</v>
       </c>
+      <c r="C26">
+        <v>68222</v>
+      </c>
+      <c r="D26">
+        <v>59573</v>
+      </c>
+      <c r="E26">
+        <v>16129</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -628,6 +868,15 @@
       <c r="B27">
         <v>195879</v>
       </c>
+      <c r="C27">
+        <v>64357</v>
+      </c>
+      <c r="D27">
+        <v>59331</v>
+      </c>
+      <c r="E27">
+        <v>16606</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -638,6 +887,15 @@
       <c r="B28">
         <v>178602</v>
       </c>
+      <c r="C28">
+        <v>59518</v>
+      </c>
+      <c r="D28">
+        <v>59228</v>
+      </c>
+      <c r="E28">
+        <v>17163</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -648,6 +906,15 @@
       <c r="B29">
         <v>14032</v>
       </c>
+      <c r="C29">
+        <v>4339</v>
+      </c>
+      <c r="D29">
+        <v>2406</v>
+      </c>
+      <c r="E29">
+        <v>527</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -658,6 +925,15 @@
       <c r="B30">
         <v>16000</v>
       </c>
+      <c r="C30">
+        <v>5504</v>
+      </c>
+      <c r="D30">
+        <v>2426</v>
+      </c>
+      <c r="E30">
+        <v>528</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -668,6 +944,15 @@
       <c r="B31">
         <v>15655</v>
       </c>
+      <c r="C31">
+        <v>5446</v>
+      </c>
+      <c r="D31">
+        <v>2493</v>
+      </c>
+      <c r="E31">
+        <v>615</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -678,6 +963,15 @@
       <c r="B32">
         <v>14976</v>
       </c>
+      <c r="C32">
+        <v>5430</v>
+      </c>
+      <c r="D32">
+        <v>2519</v>
+      </c>
+      <c r="E32">
+        <v>661</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -688,6 +982,15 @@
       <c r="B33">
         <v>17963</v>
       </c>
+      <c r="C33">
+        <v>6599</v>
+      </c>
+      <c r="D33">
+        <v>2545</v>
+      </c>
+      <c r="E33">
+        <v>711</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -698,6 +1001,15 @@
       <c r="B34">
         <v>22235</v>
       </c>
+      <c r="C34">
+        <v>8222</v>
+      </c>
+      <c r="D34">
+        <v>2548</v>
+      </c>
+      <c r="E34">
+        <v>730</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -708,6 +1020,15 @@
       <c r="B35">
         <v>20622</v>
       </c>
+      <c r="C35">
+        <v>7860</v>
+      </c>
+      <c r="D35">
+        <v>2561</v>
+      </c>
+      <c r="E35">
+        <v>729</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -718,155 +1039,470 @@
       <c r="B36">
         <v>16826</v>
       </c>
+      <c r="C36">
+        <v>6667</v>
+      </c>
+      <c r="D36">
+        <v>2552</v>
+      </c>
+      <c r="E36">
+        <v>756</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Senate Election 1996</t>
+          <t>Senate By-election 1999</t>
         </is>
       </c>
       <c r="B37">
-        <v>588</v>
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Senate Election 1998</t>
+          <t>Senate By-election 2003</t>
         </is>
       </c>
       <c r="B38">
-        <v>140</v>
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Senate Election 2000</t>
+          <t>Senate By-election 2004</t>
         </is>
       </c>
       <c r="B39">
-        <v>165</v>
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Senate Election 2002</t>
+          <t>Senate By-election 2007</t>
         </is>
       </c>
       <c r="B40">
-        <v>199</v>
+        <v>17</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Senate Election 2004</t>
+          <t>Senate By-election 2011</t>
         </is>
       </c>
       <c r="B41">
-        <v>216</v>
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Senate Election 2006</t>
+          <t>Senate By-election 2014</t>
         </is>
       </c>
       <c r="B42">
-        <v>214</v>
+        <v>20</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Senate Election 2008</t>
+          <t>Senate By-election 2017</t>
         </is>
       </c>
       <c r="B43">
-        <v>203</v>
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Senate Election 2010</t>
+          <t>Senate By-election 2018</t>
         </is>
       </c>
       <c r="B44">
-        <v>228</v>
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Senate Election 2012</t>
+          <t>Senate By-election 2019</t>
         </is>
       </c>
       <c r="B45">
-        <v>236</v>
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Senate Election 2014</t>
+          <t>Senate By-election 2020</t>
         </is>
       </c>
       <c r="B46">
-        <v>245</v>
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Senate By-election 2016</t>
+          <t>Senate Election 1996</t>
         </is>
       </c>
       <c r="B47">
-        <v>234</v>
+        <v>588</v>
+      </c>
+      <c r="C47">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>81</v>
+      </c>
+      <c r="E47">
+        <v>9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Senate Election 2018</t>
+          <t>Senate Election 1998</t>
         </is>
       </c>
       <c r="B48">
-        <v>237</v>
+        <v>140</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>27</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Senate Election 2020</t>
+          <t>Senate Election 2000</t>
         </is>
       </c>
       <c r="B49">
-        <v>237</v>
+        <v>165</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49">
+        <v>27</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Senate Election 2022</t>
+          <t>Senate Election 2002</t>
         </is>
       </c>
       <c r="B50">
-        <v>181</v>
+        <v>199</v>
+      </c>
+      <c r="C50">
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Senate By-election NA</t>
+          <t>Senate Election 2004</t>
         </is>
       </c>
       <c r="B51">
-        <v>131</v>
+        <v>216</v>
+      </c>
+      <c r="C51">
+        <v>38</v>
+      </c>
+      <c r="D51">
+        <v>27</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Senate Election 2006</t>
+        </is>
+      </c>
+      <c r="B52">
+        <v>214</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+      <c r="D52">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Senate Election 2008</t>
+        </is>
+      </c>
+      <c r="B53">
+        <v>203</v>
+      </c>
+      <c r="C53">
+        <v>34</v>
+      </c>
+      <c r="D53">
+        <v>27</v>
+      </c>
+      <c r="E53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Senate Election 2010</t>
+        </is>
+      </c>
+      <c r="B54">
+        <v>228</v>
+      </c>
+      <c r="C54">
+        <v>37</v>
+      </c>
+      <c r="D54">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Senate Election 2012</t>
+        </is>
+      </c>
+      <c r="B55">
+        <v>236</v>
+      </c>
+      <c r="C55">
+        <v>42</v>
+      </c>
+      <c r="D55">
+        <v>27</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Senate Election 2014</t>
+        </is>
+      </c>
+      <c r="B56">
+        <v>245</v>
+      </c>
+      <c r="C56">
+        <v>38</v>
+      </c>
+      <c r="D56">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Senate Election 2016</t>
+        </is>
+      </c>
+      <c r="B57">
+        <v>234</v>
+      </c>
+      <c r="C57">
+        <v>43</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Senate Election 2018</t>
+        </is>
+      </c>
+      <c r="B58">
+        <v>237</v>
+      </c>
+      <c r="C58">
+        <v>42</v>
+      </c>
+      <c r="D58">
+        <v>27</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Senate Election 2020</t>
+        </is>
+      </c>
+      <c r="B59">
+        <v>237</v>
+      </c>
+      <c r="C59">
+        <v>38</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Senate Election 2022</t>
+        </is>
+      </c>
+      <c r="B60">
+        <v>181</v>
+      </c>
+      <c r="C60">
+        <v>43</v>
+      </c>
+      <c r="D60">
+        <v>27</v>
+      </c>
+      <c r="E60">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/figs/n_candidates.xlsx
+++ b/figs/n_candidates.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -383,6 +383,11 @@
           <t>n_female_elected</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>share_elected</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,10 +396,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>4536</v>
+        <v>3909</v>
       </c>
       <c r="C2">
-        <v>917</v>
+        <v>789</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -402,6 +407,9 @@
       <c r="E2">
         <v>30</v>
       </c>
+      <c r="F2">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -410,10 +418,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>3726</v>
+        <v>3374</v>
       </c>
       <c r="C3">
-        <v>771</v>
+        <v>704</v>
       </c>
       <c r="D3">
         <v>200</v>
@@ -421,6 +429,9 @@
       <c r="E3">
         <v>30</v>
       </c>
+      <c r="F3">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -429,10 +440,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>6162</v>
+        <v>6068</v>
       </c>
       <c r="C4">
-        <v>1634</v>
+        <v>1597</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -440,6 +451,9 @@
       <c r="E4">
         <v>34</v>
       </c>
+      <c r="F4">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -448,10 +462,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>5011</v>
+        <v>4985</v>
       </c>
       <c r="C5">
-        <v>1395</v>
+        <v>1385</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -459,6 +473,9 @@
       <c r="E5">
         <v>31</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -467,10 +484,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>5054</v>
+        <v>5022</v>
       </c>
       <c r="C6">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="D6">
         <v>200</v>
@@ -478,6 +495,9 @@
       <c r="E6">
         <v>44</v>
       </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -486,10 +506,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>5905</v>
+        <v>5899</v>
       </c>
       <c r="C7">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D7">
         <v>200</v>
@@ -497,6 +517,9 @@
       <c r="E7">
         <v>39</v>
       </c>
+      <c r="F7">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -505,10 +528,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>7539</v>
+        <v>7524</v>
       </c>
       <c r="C8">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="D8">
         <v>200</v>
@@ -516,6 +539,9 @@
       <c r="E8">
         <v>44</v>
       </c>
+      <c r="F8">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -524,10 +550,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>5258</v>
+        <v>5242</v>
       </c>
       <c r="C9">
-        <v>1664</v>
+        <v>1658</v>
       </c>
       <c r="D9">
         <v>200</v>
@@ -535,6 +561,9 @@
       <c r="E9">
         <v>50</v>
       </c>
+      <c r="F9">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -554,6 +583,9 @@
       <c r="E10">
         <v>97</v>
       </c>
+      <c r="F10">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -573,6 +605,9 @@
       <c r="E11">
         <v>103</v>
       </c>
+      <c r="F11">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -581,10 +616,10 @@
         </is>
       </c>
       <c r="B12">
-        <v>8264</v>
+        <v>8206</v>
       </c>
       <c r="C12">
-        <v>2418</v>
+        <v>2395</v>
       </c>
       <c r="D12">
         <v>675</v>
@@ -592,6 +627,9 @@
       <c r="E12">
         <v>119</v>
       </c>
+      <c r="F12">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -600,10 +638,10 @@
         </is>
       </c>
       <c r="B13">
-        <v>11319</v>
+        <v>11304</v>
       </c>
       <c r="C13">
-        <v>3123</v>
+        <v>3118</v>
       </c>
       <c r="D13">
         <v>675</v>
@@ -611,6 +649,9 @@
       <c r="E13">
         <v>134</v>
       </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -619,10 +660,10 @@
         </is>
       </c>
       <c r="B14">
-        <v>11888</v>
+        <v>11803</v>
       </c>
       <c r="C14">
-        <v>3581</v>
+        <v>3545</v>
       </c>
       <c r="D14">
         <v>675</v>
@@ -630,6 +671,9 @@
       <c r="E14">
         <v>137</v>
       </c>
+      <c r="F14">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -638,10 +682,10 @@
         </is>
       </c>
       <c r="B15">
-        <v>9726</v>
+        <v>9711</v>
       </c>
       <c r="C15">
-        <v>2678</v>
+        <v>2671</v>
       </c>
       <c r="D15">
         <v>675</v>
@@ -649,860 +693,426 @@
       <c r="E15">
         <v>149</v>
       </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EP 2004</t>
+          <t>EP 2019</t>
         </is>
       </c>
       <c r="B16">
-        <v>809</v>
+        <v>841</v>
       </c>
       <c r="C16">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>2.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EP 2009</t>
+          <t>EP 2024</t>
         </is>
       </c>
       <c r="B17">
-        <v>731</v>
+        <v>674</v>
       </c>
       <c r="C17">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>3.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EP 2014</t>
+          <t>Municipal 1994</t>
         </is>
       </c>
       <c r="B18">
-        <v>857</v>
+        <v>145611</v>
       </c>
       <c r="C18">
-        <v>230</v>
+        <v>31530</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>59754</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>10614</v>
+      </c>
+      <c r="F18">
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EP 2019</t>
+          <t>Municipal 1998</t>
         </is>
       </c>
       <c r="B19">
-        <v>844</v>
+        <v>163664</v>
       </c>
       <c r="C19">
-        <v>201</v>
+        <v>40784</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>59986</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>12263</v>
+      </c>
+      <c r="F19">
+        <v>36.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EP 2024</t>
+          <t>Municipal 2002</t>
         </is>
       </c>
       <c r="B20">
-        <v>675</v>
+        <v>177309</v>
       </c>
       <c r="C20">
-        <v>246</v>
+        <v>48098</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>60001</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>13567</v>
+      </c>
+      <c r="F20">
+        <v>33.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Municipal 1994</t>
+          <t>Municipal 2006</t>
         </is>
       </c>
       <c r="B21">
-        <v>146321</v>
+        <v>186716</v>
       </c>
       <c r="C21">
-        <v>31681</v>
+        <v>54988</v>
       </c>
       <c r="D21">
-        <v>59754</v>
+        <v>60056</v>
       </c>
       <c r="E21">
-        <v>10614</v>
+        <v>15000</v>
+      </c>
+      <c r="F21">
+        <v>32.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Municipal 1998</t>
+          <t>Municipal 2010</t>
         </is>
       </c>
       <c r="B22">
-        <v>164190</v>
+        <v>208510</v>
       </c>
       <c r="C22">
-        <v>40928</v>
+        <v>65064</v>
       </c>
       <c r="D22">
-        <v>59986</v>
+        <v>59793</v>
       </c>
       <c r="E22">
-        <v>12263</v>
+        <v>15725</v>
+      </c>
+      <c r="F22">
+        <v>28.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Municipal 2002</t>
+          <t>Municipal 2014</t>
         </is>
       </c>
       <c r="B23">
-        <v>177668</v>
+        <v>211295</v>
       </c>
       <c r="C23">
-        <v>48223</v>
+        <v>68091</v>
       </c>
       <c r="D23">
-        <v>60001</v>
+        <v>59573</v>
       </c>
       <c r="E23">
-        <v>13567</v>
+        <v>16129</v>
+      </c>
+      <c r="F23">
+        <v>28.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Municipal 2006</t>
+          <t>Municipal 2018</t>
         </is>
       </c>
       <c r="B24">
-        <v>187038</v>
+        <v>195630</v>
       </c>
       <c r="C24">
-        <v>55099</v>
+        <v>64249</v>
       </c>
       <c r="D24">
-        <v>60056</v>
+        <v>59331</v>
       </c>
       <c r="E24">
-        <v>15000</v>
+        <v>16606</v>
+      </c>
+      <c r="F24">
+        <v>30.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Municipal 2010</t>
+          <t>Municipal 2022</t>
         </is>
       </c>
       <c r="B25">
-        <v>208977</v>
+        <v>178432</v>
       </c>
       <c r="C25">
-        <v>65223</v>
+        <v>59459</v>
       </c>
       <c r="D25">
-        <v>59793</v>
+        <v>59228</v>
       </c>
       <c r="E25">
-        <v>15725</v>
+        <v>17163</v>
+      </c>
+      <c r="F25">
+        <v>33.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Municipal 2014</t>
+          <t>City districts 1994</t>
         </is>
       </c>
       <c r="B26">
-        <v>211633</v>
+        <v>13967</v>
       </c>
       <c r="C26">
-        <v>68222</v>
+        <v>4322</v>
       </c>
       <c r="D26">
-        <v>59573</v>
+        <v>2406</v>
       </c>
       <c r="E26">
-        <v>16129</v>
+        <v>527</v>
+      </c>
+      <c r="F26">
+        <v>17.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Municipal 2018</t>
+          <t>City districts 1998</t>
         </is>
       </c>
       <c r="B27">
-        <v>195879</v>
+        <v>15945</v>
       </c>
       <c r="C27">
-        <v>64357</v>
+        <v>5477</v>
       </c>
       <c r="D27">
-        <v>59331</v>
+        <v>2426</v>
       </c>
       <c r="E27">
-        <v>16606</v>
+        <v>528</v>
+      </c>
+      <c r="F27">
+        <v>15.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Municipal 2022</t>
+          <t>City districts 2002</t>
         </is>
       </c>
       <c r="B28">
-        <v>178602</v>
+        <v>15621</v>
       </c>
       <c r="C28">
-        <v>59518</v>
+        <v>5434</v>
       </c>
       <c r="D28">
-        <v>59228</v>
+        <v>2493</v>
       </c>
       <c r="E28">
-        <v>17163</v>
+        <v>615</v>
+      </c>
+      <c r="F28">
+        <v>16</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>City districts 1994</t>
+          <t>City districts 2006</t>
         </is>
       </c>
       <c r="B29">
-        <v>14032</v>
+        <v>14948</v>
       </c>
       <c r="C29">
-        <v>4339</v>
+        <v>5421</v>
       </c>
       <c r="D29">
-        <v>2406</v>
+        <v>2519</v>
       </c>
       <c r="E29">
-        <v>527</v>
+        <v>661</v>
+      </c>
+      <c r="F29">
+        <v>16.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>City districts 1998</t>
+          <t>City districts 2010</t>
         </is>
       </c>
       <c r="B30">
-        <v>16000</v>
+        <v>17923</v>
       </c>
       <c r="C30">
-        <v>5504</v>
+        <v>6585</v>
       </c>
       <c r="D30">
-        <v>2426</v>
+        <v>2545</v>
       </c>
       <c r="E30">
-        <v>528</v>
+        <v>711</v>
+      </c>
+      <c r="F30">
+        <v>14.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>City districts 2002</t>
+          <t>City districts 2014</t>
         </is>
       </c>
       <c r="B31">
-        <v>15655</v>
+        <v>22197</v>
       </c>
       <c r="C31">
-        <v>5446</v>
+        <v>8206</v>
       </c>
       <c r="D31">
-        <v>2493</v>
+        <v>2548</v>
       </c>
       <c r="E31">
-        <v>615</v>
+        <v>730</v>
+      </c>
+      <c r="F31">
+        <v>11.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>City districts 2006</t>
+          <t>City districts 2018</t>
         </is>
       </c>
       <c r="B32">
-        <v>14976</v>
+        <v>20531</v>
       </c>
       <c r="C32">
-        <v>5430</v>
+        <v>7828</v>
       </c>
       <c r="D32">
-        <v>2519</v>
+        <v>2561</v>
       </c>
       <c r="E32">
-        <v>661</v>
+        <v>729</v>
+      </c>
+      <c r="F32">
+        <v>12.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>City districts 2010</t>
+          <t>City districts 2022</t>
         </is>
       </c>
       <c r="B33">
-        <v>17963</v>
+        <v>16791</v>
       </c>
       <c r="C33">
-        <v>6599</v>
+        <v>6648</v>
       </c>
       <c r="D33">
-        <v>2545</v>
+        <v>2552</v>
       </c>
       <c r="E33">
-        <v>711</v>
+        <v>756</v>
+      </c>
+      <c r="F33">
+        <v>15.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>City districts 2014</t>
+          <t>Senate By-elections</t>
         </is>
       </c>
       <c r="B34">
-        <v>22235</v>
+        <v>3343</v>
       </c>
       <c r="C34">
-        <v>8222</v>
+        <v>539</v>
       </c>
       <c r="D34">
-        <v>2548</v>
+        <v>447</v>
       </c>
       <c r="E34">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>City districts 2018</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>20622</v>
-      </c>
-      <c r="C35">
-        <v>7860</v>
-      </c>
-      <c r="D35">
-        <v>2561</v>
-      </c>
-      <c r="E35">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>City districts 2022</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>16826</v>
-      </c>
-      <c r="C36">
-        <v>6667</v>
-      </c>
-      <c r="D36">
-        <v>2552</v>
-      </c>
-      <c r="E36">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Senate By-election 1999</t>
-        </is>
-      </c>
-      <c r="B37">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Senate By-election 2003</t>
-        </is>
-      </c>
-      <c r="B38">
-        <v>16</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Senate By-election 2004</t>
-        </is>
-      </c>
-      <c r="B39">
-        <v>12</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Senate By-election 2007</t>
-        </is>
-      </c>
-      <c r="B40">
-        <v>17</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Senate By-election 2011</t>
-        </is>
-      </c>
-      <c r="B41">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Senate By-election 2014</t>
-        </is>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Senate By-election 2017</t>
-        </is>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Senate By-election 2018</t>
-        </is>
-      </c>
-      <c r="B44">
-        <v>18</v>
-      </c>
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Senate By-election 2019</t>
-        </is>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Senate By-election 2020</t>
-        </is>
-      </c>
-      <c r="B46">
-        <v>11</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Senate Election 1996</t>
-        </is>
-      </c>
-      <c r="B47">
-        <v>588</v>
-      </c>
-      <c r="C47">
-        <v>63</v>
-      </c>
-      <c r="D47">
-        <v>81</v>
-      </c>
-      <c r="E47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Senate Election 1998</t>
-        </is>
-      </c>
-      <c r="B48">
-        <v>140</v>
-      </c>
-      <c r="C48">
-        <v>12</v>
-      </c>
-      <c r="D48">
-        <v>27</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Senate Election 2000</t>
-        </is>
-      </c>
-      <c r="B49">
-        <v>165</v>
-      </c>
-      <c r="C49">
-        <v>27</v>
-      </c>
-      <c r="D49">
-        <v>27</v>
-      </c>
-      <c r="E49">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Senate Election 2002</t>
-        </is>
-      </c>
-      <c r="B50">
-        <v>199</v>
-      </c>
-      <c r="C50">
-        <v>32</v>
-      </c>
-      <c r="D50">
-        <v>27</v>
-      </c>
-      <c r="E50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Senate Election 2004</t>
-        </is>
-      </c>
-      <c r="B51">
-        <v>216</v>
-      </c>
-      <c r="C51">
-        <v>38</v>
-      </c>
-      <c r="D51">
-        <v>27</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Senate Election 2006</t>
-        </is>
-      </c>
-      <c r="B52">
-        <v>214</v>
-      </c>
-      <c r="C52">
-        <v>40</v>
-      </c>
-      <c r="D52">
-        <v>27</v>
-      </c>
-      <c r="E52">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Senate Election 2008</t>
-        </is>
-      </c>
-      <c r="B53">
-        <v>203</v>
-      </c>
-      <c r="C53">
-        <v>34</v>
-      </c>
-      <c r="D53">
-        <v>27</v>
-      </c>
-      <c r="E53">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Senate Election 2010</t>
-        </is>
-      </c>
-      <c r="B54">
-        <v>228</v>
-      </c>
-      <c r="C54">
-        <v>37</v>
-      </c>
-      <c r="D54">
-        <v>27</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Senate Election 2012</t>
-        </is>
-      </c>
-      <c r="B55">
-        <v>236</v>
-      </c>
-      <c r="C55">
-        <v>42</v>
-      </c>
-      <c r="D55">
-        <v>27</v>
-      </c>
-      <c r="E55">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Senate Election 2014</t>
-        </is>
-      </c>
-      <c r="B56">
-        <v>245</v>
-      </c>
-      <c r="C56">
-        <v>38</v>
-      </c>
-      <c r="D56">
-        <v>27</v>
-      </c>
-      <c r="E56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Senate Election 2016</t>
-        </is>
-      </c>
-      <c r="B57">
-        <v>234</v>
-      </c>
-      <c r="C57">
-        <v>43</v>
-      </c>
-      <c r="D57">
-        <v>27</v>
-      </c>
-      <c r="E57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Senate Election 2018</t>
-        </is>
-      </c>
-      <c r="B58">
-        <v>237</v>
-      </c>
-      <c r="C58">
-        <v>42</v>
-      </c>
-      <c r="D58">
-        <v>27</v>
-      </c>
-      <c r="E58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Senate Election 2020</t>
-        </is>
-      </c>
-      <c r="B59">
-        <v>237</v>
-      </c>
-      <c r="C59">
-        <v>38</v>
-      </c>
-      <c r="D59">
-        <v>27</v>
-      </c>
-      <c r="E59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Senate Election 2022</t>
-        </is>
-      </c>
-      <c r="B60">
-        <v>181</v>
-      </c>
-      <c r="C60">
-        <v>43</v>
-      </c>
-      <c r="D60">
-        <v>27</v>
-      </c>
-      <c r="E60">
-        <v>9</v>
+        <v>70</v>
+      </c>
+      <c r="F34">
+        <v>13.4</v>
       </c>
     </row>
   </sheetData>

--- a/figs/n_candidates.xlsx
+++ b/figs/n_candidates.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -700,42 +700,42 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EP 2019</t>
+          <t>EP 2004</t>
         </is>
       </c>
       <c r="B16">
-        <v>841</v>
+        <v>806</v>
       </c>
       <c r="C16">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D16">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EP 2024</t>
+          <t>EP 2009</t>
         </is>
       </c>
       <c r="B17">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="C17">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="D17">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F17">
         <v>3.1</v>
@@ -744,374 +744,440 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Municipal 1994</t>
+          <t>EP 2014</t>
         </is>
       </c>
       <c r="B18">
-        <v>145611</v>
+        <v>849</v>
       </c>
       <c r="C18">
-        <v>31530</v>
+        <v>227</v>
       </c>
       <c r="D18">
-        <v>59754</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>10614</v>
+        <v>5</v>
       </c>
       <c r="F18">
-        <v>41</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Municipal 1998</t>
+          <t>EP 2019</t>
         </is>
       </c>
       <c r="B19">
-        <v>163664</v>
+        <v>841</v>
       </c>
       <c r="C19">
-        <v>40784</v>
+        <v>201</v>
       </c>
       <c r="D19">
-        <v>59986</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>12263</v>
+        <v>7</v>
       </c>
       <c r="F19">
-        <v>36.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Municipal 2002</t>
+          <t>EP 2024</t>
         </is>
       </c>
       <c r="B20">
-        <v>177309</v>
+        <v>674</v>
       </c>
       <c r="C20">
-        <v>48098</v>
+        <v>245</v>
       </c>
       <c r="D20">
-        <v>60001</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>13567</v>
+        <v>8</v>
       </c>
       <c r="F20">
-        <v>33.8</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Municipal 2006</t>
+          <t>Municipal 1994</t>
         </is>
       </c>
       <c r="B21">
-        <v>186716</v>
+        <v>145611</v>
       </c>
       <c r="C21">
-        <v>54988</v>
+        <v>31530</v>
       </c>
       <c r="D21">
-        <v>60056</v>
+        <v>59754</v>
       </c>
       <c r="E21">
-        <v>15000</v>
+        <v>10614</v>
       </c>
       <c r="F21">
-        <v>32.2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Municipal 2010</t>
+          <t>Municipal 1998</t>
         </is>
       </c>
       <c r="B22">
-        <v>208510</v>
+        <v>163664</v>
       </c>
       <c r="C22">
-        <v>65064</v>
+        <v>40784</v>
       </c>
       <c r="D22">
-        <v>59793</v>
+        <v>59986</v>
       </c>
       <c r="E22">
-        <v>15725</v>
+        <v>12263</v>
       </c>
       <c r="F22">
-        <v>28.7</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Municipal 2014</t>
+          <t>Municipal 2002</t>
         </is>
       </c>
       <c r="B23">
-        <v>211295</v>
+        <v>177309</v>
       </c>
       <c r="C23">
-        <v>68091</v>
+        <v>48098</v>
       </c>
       <c r="D23">
-        <v>59573</v>
+        <v>60001</v>
       </c>
       <c r="E23">
-        <v>16129</v>
+        <v>13567</v>
       </c>
       <c r="F23">
-        <v>28.2</v>
+        <v>33.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Municipal 2018</t>
+          <t>Municipal 2006</t>
         </is>
       </c>
       <c r="B24">
-        <v>195630</v>
+        <v>186716</v>
       </c>
       <c r="C24">
-        <v>64249</v>
+        <v>54988</v>
       </c>
       <c r="D24">
-        <v>59331</v>
+        <v>60056</v>
       </c>
       <c r="E24">
-        <v>16606</v>
+        <v>15000</v>
       </c>
       <c r="F24">
-        <v>30.3</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Municipal 2022</t>
+          <t>Municipal 2010</t>
         </is>
       </c>
       <c r="B25">
-        <v>178432</v>
+        <v>208510</v>
       </c>
       <c r="C25">
-        <v>59459</v>
+        <v>65064</v>
       </c>
       <c r="D25">
-        <v>59228</v>
+        <v>59793</v>
       </c>
       <c r="E25">
-        <v>17163</v>
+        <v>15725</v>
       </c>
       <c r="F25">
-        <v>33.2</v>
+        <v>28.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>City districts 1994</t>
+          <t>Municipal 2014</t>
         </is>
       </c>
       <c r="B26">
-        <v>13967</v>
+        <v>211295</v>
       </c>
       <c r="C26">
-        <v>4322</v>
+        <v>68091</v>
       </c>
       <c r="D26">
-        <v>2406</v>
+        <v>59573</v>
       </c>
       <c r="E26">
-        <v>527</v>
+        <v>16129</v>
       </c>
       <c r="F26">
-        <v>17.2</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>City districts 1998</t>
+          <t>Municipal 2018</t>
         </is>
       </c>
       <c r="B27">
-        <v>15945</v>
+        <v>195630</v>
       </c>
       <c r="C27">
-        <v>5477</v>
+        <v>64249</v>
       </c>
       <c r="D27">
-        <v>2426</v>
+        <v>59331</v>
       </c>
       <c r="E27">
-        <v>528</v>
+        <v>16606</v>
       </c>
       <c r="F27">
-        <v>15.2</v>
+        <v>30.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>City districts 2002</t>
+          <t>Municipal 2022</t>
         </is>
       </c>
       <c r="B28">
-        <v>15621</v>
+        <v>178432</v>
       </c>
       <c r="C28">
-        <v>5434</v>
+        <v>59459</v>
       </c>
       <c r="D28">
-        <v>2493</v>
+        <v>59228</v>
       </c>
       <c r="E28">
-        <v>615</v>
+        <v>17163</v>
       </c>
       <c r="F28">
-        <v>16</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>City districts 2006</t>
+          <t>City districts 1994</t>
         </is>
       </c>
       <c r="B29">
-        <v>14948</v>
+        <v>13967</v>
       </c>
       <c r="C29">
-        <v>5421</v>
+        <v>4322</v>
       </c>
       <c r="D29">
-        <v>2519</v>
+        <v>2406</v>
       </c>
       <c r="E29">
-        <v>661</v>
+        <v>527</v>
       </c>
       <c r="F29">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>City districts 2010</t>
+          <t>City districts 1998</t>
         </is>
       </c>
       <c r="B30">
-        <v>17923</v>
+        <v>15945</v>
       </c>
       <c r="C30">
-        <v>6585</v>
+        <v>5477</v>
       </c>
       <c r="D30">
-        <v>2545</v>
+        <v>2426</v>
       </c>
       <c r="E30">
-        <v>711</v>
+        <v>528</v>
       </c>
       <c r="F30">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>City districts 2014</t>
+          <t>City districts 2002</t>
         </is>
       </c>
       <c r="B31">
-        <v>22197</v>
+        <v>15621</v>
       </c>
       <c r="C31">
-        <v>8206</v>
+        <v>5434</v>
       </c>
       <c r="D31">
-        <v>2548</v>
+        <v>2493</v>
       </c>
       <c r="E31">
-        <v>730</v>
+        <v>615</v>
       </c>
       <c r="F31">
-        <v>11.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>City districts 2018</t>
+          <t>City districts 2006</t>
         </is>
       </c>
       <c r="B32">
-        <v>20531</v>
+        <v>14948</v>
       </c>
       <c r="C32">
-        <v>7828</v>
+        <v>5421</v>
       </c>
       <c r="D32">
-        <v>2561</v>
+        <v>2519</v>
       </c>
       <c r="E32">
-        <v>729</v>
+        <v>661</v>
       </c>
       <c r="F32">
-        <v>12.5</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>City districts 2022</t>
+          <t>City districts 2010</t>
         </is>
       </c>
       <c r="B33">
-        <v>16791</v>
+        <v>17923</v>
       </c>
       <c r="C33">
-        <v>6648</v>
+        <v>6585</v>
       </c>
       <c r="D33">
-        <v>2552</v>
+        <v>2545</v>
       </c>
       <c r="E33">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="F33">
-        <v>15.2</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>City districts 2014</t>
+        </is>
+      </c>
+      <c r="B34">
+        <v>22197</v>
+      </c>
+      <c r="C34">
+        <v>8206</v>
+      </c>
+      <c r="D34">
+        <v>2548</v>
+      </c>
+      <c r="E34">
+        <v>730</v>
+      </c>
+      <c r="F34">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>City districts 2018</t>
+        </is>
+      </c>
+      <c r="B35">
+        <v>20531</v>
+      </c>
+      <c r="C35">
+        <v>7828</v>
+      </c>
+      <c r="D35">
+        <v>2561</v>
+      </c>
+      <c r="E35">
+        <v>729</v>
+      </c>
+      <c r="F35">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>City districts 2022</t>
+        </is>
+      </c>
+      <c r="B36">
+        <v>16791</v>
+      </c>
+      <c r="C36">
+        <v>6648</v>
+      </c>
+      <c r="D36">
+        <v>2552</v>
+      </c>
+      <c r="E36">
+        <v>756</v>
+      </c>
+      <c r="F36">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>Senate By-elections</t>
         </is>
       </c>
-      <c r="B34">
+      <c r="B37">
         <v>3343</v>
       </c>
-      <c r="C34">
+      <c r="C37">
         <v>539</v>
       </c>
-      <c r="D34">
+      <c r="D37">
         <v>447</v>
       </c>
-      <c r="E34">
+      <c r="E37">
         <v>70</v>
       </c>
-      <c r="F34">
+      <c r="F37">
         <v>13.4</v>
       </c>
     </row>
